--- a/result/tangsel/Analisis_Pelatihan_Tangsel.xlsx
+++ b/result/tangsel/Analisis_Pelatihan_Tangsel.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,28 +539,28 @@
         </is>
       </c>
       <c r="D2" s="4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>923</v>
+        <v>938</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>1450</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>63.66</v>
+        <v>64.69</v>
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
@@ -583,28 +583,28 @@
         </is>
       </c>
       <c r="D3" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>1450</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>64.62</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
@@ -627,28 +627,28 @@
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>942</v>
+        <v>905</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>1450</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>64.97</v>
+        <v>62.41</v>
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
@@ -671,28 +671,28 @@
         </is>
       </c>
       <c r="D5" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>1450</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>63.59</v>
+        <v>64.28</v>
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
@@ -715,28 +715,28 @@
         </is>
       </c>
       <c r="D6" s="4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>25</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>950</v>
+        <v>920</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>1450</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>65.52</v>
+        <v>63.45</v>
       </c>
       <c r="L6" s="4" t="inlineStr">
         <is>
@@ -759,28 +759,28 @@
         </is>
       </c>
       <c r="D7" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>55</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>1450</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>63.45</v>
+        <v>63.17</v>
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
@@ -803,28 +803,28 @@
         </is>
       </c>
       <c r="D8" s="4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>1450</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>63.59</v>
+        <v>63.86</v>
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
@@ -847,28 +847,28 @@
         </is>
       </c>
       <c r="D9" s="4" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>919</v>
+        <v>939</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>1450</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>63.38</v>
+        <v>64.76000000000001</v>
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
@@ -891,74 +891,30 @@
         </is>
       </c>
       <c r="D10" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>946</v>
+        <v>931</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>1450</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>65.23999999999999</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="L10" s="4" t="inlineStr">
-        <is>
-          <t>Netral</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>X1.10</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>59</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>111</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>91</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>936</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>1450</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>64.55</v>
-      </c>
-      <c r="L11" s="4" t="inlineStr">
         <is>
           <t>Netral</t>
         </is>

--- a/result/tangsel/Analisis_Pelatihan_Tangsel.xlsx
+++ b/result/tangsel/Analisis_Pelatihan_Tangsel.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,7 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="18.8" customWidth="1" min="11" max="11"/>
     <col width="11.6" customWidth="1" min="12" max="12"/>
+    <col width="9.199999999999999" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -523,6 +524,11 @@
           <t>Kategori</t>
         </is>
       </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Urutan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
@@ -567,6 +573,9 @@
           <t>Netral</t>
         </is>
       </c>
+      <c r="M2" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
@@ -611,6 +620,9 @@
           <t>Netral</t>
         </is>
       </c>
+      <c r="M3" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -655,6 +667,9 @@
           <t>Netral</t>
         </is>
       </c>
+      <c r="M4" s="4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -699,6 +714,9 @@
           <t>Netral</t>
         </is>
       </c>
+      <c r="M5" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -743,6 +761,9 @@
           <t>Netral</t>
         </is>
       </c>
+      <c r="M6" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -787,6 +808,9 @@
           <t>Netral</t>
         </is>
       </c>
+      <c r="M7" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -831,6 +855,9 @@
           <t>Netral</t>
         </is>
       </c>
+      <c r="M8" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -875,6 +902,9 @@
           <t>Netral</t>
         </is>
       </c>
+      <c r="M9" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
@@ -918,6 +948,9 @@
         <is>
           <t>Netral</t>
         </is>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
